--- a/Ref.xlsx
+++ b/Ref.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimkwanwoo/Develop/Projects/python/GolfCCReservationBot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF17AB49-742E-3943-BF75-E43C53345E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0139D34E-20CE-7848-B150-F54085C4B74D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="1" xr2:uid="{16E71544-D2AD-964B-9CEF-7076C4234961}"/>
   </bookViews>
@@ -5651,7 +5651,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5668,6 +5668,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -5810,7 +5816,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -5932,6 +5938,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -8169,8 +8176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D62D9FA-AE08-AF45-8702-14FD6B9D9BB8}">
   <dimension ref="B3:T855"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5:R857"/>
+    <sheetView tabSelected="1" topLeftCell="D678" workbookViewId="0">
+      <selection activeCell="T701" activeCellId="1" sqref="T705 T701"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15875,7 +15882,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="689" spans="18:20" x14ac:dyDescent="0.2">
+    <row r="689" spans="17:20" x14ac:dyDescent="0.2">
       <c r="R689" t="s">
         <v>104</v>
       </c>
@@ -15883,7 +15890,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="690" spans="18:20" x14ac:dyDescent="0.2">
+    <row r="690" spans="17:20" x14ac:dyDescent="0.2">
       <c r="R690" t="s">
         <v>105</v>
       </c>
@@ -15891,7 +15898,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="691" spans="18:20" x14ac:dyDescent="0.2">
+    <row r="691" spans="17:20" x14ac:dyDescent="0.2">
       <c r="R691" t="s">
         <v>106</v>
       </c>
@@ -15899,7 +15906,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="692" spans="18:20" x14ac:dyDescent="0.2">
+    <row r="692" spans="17:20" x14ac:dyDescent="0.2">
       <c r="R692" t="s">
         <v>107</v>
       </c>
@@ -15907,7 +15914,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="693" spans="18:20" x14ac:dyDescent="0.2">
+    <row r="693" spans="17:20" x14ac:dyDescent="0.2">
       <c r="R693" t="s">
         <v>108</v>
       </c>
@@ -15915,7 +15922,7 @@
         <v>1661</v>
       </c>
     </row>
-    <row r="694" spans="18:20" x14ac:dyDescent="0.2">
+    <row r="694" spans="17:20" x14ac:dyDescent="0.2">
       <c r="R694" t="s">
         <v>109</v>
       </c>
@@ -15923,7 +15930,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="695" spans="18:20" x14ac:dyDescent="0.2">
+    <row r="695" spans="17:20" x14ac:dyDescent="0.2">
       <c r="R695" t="s">
         <v>110</v>
       </c>
@@ -15931,7 +15938,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="696" spans="18:20" x14ac:dyDescent="0.2">
+    <row r="696" spans="17:20" x14ac:dyDescent="0.2">
       <c r="R696" t="s">
         <v>111</v>
       </c>
@@ -15939,7 +15946,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="697" spans="18:20" x14ac:dyDescent="0.2">
+    <row r="697" spans="17:20" x14ac:dyDescent="0.2">
       <c r="R697" t="s">
         <v>112</v>
       </c>
@@ -15947,7 +15954,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="698" spans="18:20" x14ac:dyDescent="0.2">
+    <row r="698" spans="17:20" x14ac:dyDescent="0.2">
       <c r="R698" t="s">
         <v>156</v>
       </c>
@@ -15955,7 +15962,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="699" spans="18:20" x14ac:dyDescent="0.2">
+    <row r="699" spans="17:20" x14ac:dyDescent="0.2">
       <c r="R699" t="s">
         <v>157</v>
       </c>
@@ -15963,7 +15970,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="700" spans="18:20" x14ac:dyDescent="0.2">
+    <row r="700" spans="17:20" x14ac:dyDescent="0.2">
       <c r="R700" t="s">
         <v>146</v>
       </c>
@@ -15971,7 +15978,8 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="701" spans="18:20" x14ac:dyDescent="0.2">
+    <row r="701" spans="17:20" x14ac:dyDescent="0.2">
+      <c r="Q701" s="57"/>
       <c r="R701" t="s">
         <v>150</v>
       </c>
@@ -15979,7 +15987,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="702" spans="18:20" x14ac:dyDescent="0.2">
+    <row r="702" spans="17:20" x14ac:dyDescent="0.2">
       <c r="R702" t="s">
         <v>113</v>
       </c>
@@ -15987,7 +15995,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="703" spans="18:20" x14ac:dyDescent="0.2">
+    <row r="703" spans="17:20" x14ac:dyDescent="0.2">
       <c r="R703" t="s">
         <v>151</v>
       </c>
@@ -15995,7 +16003,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="704" spans="18:20" x14ac:dyDescent="0.2">
+    <row r="704" spans="17:20" x14ac:dyDescent="0.2">
       <c r="R704" t="s">
         <v>158</v>
       </c>
@@ -16003,7 +16011,8 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="705" spans="18:20" x14ac:dyDescent="0.2">
+    <row r="705" spans="17:20" x14ac:dyDescent="0.2">
+      <c r="Q705" s="57"/>
       <c r="R705" t="s">
         <v>115</v>
       </c>
@@ -16011,7 +16020,7 @@
         <v>1673</v>
       </c>
     </row>
-    <row r="706" spans="18:20" x14ac:dyDescent="0.2">
+    <row r="706" spans="17:20" x14ac:dyDescent="0.2">
       <c r="R706" t="s">
         <v>117</v>
       </c>
@@ -16019,7 +16028,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="707" spans="18:20" x14ac:dyDescent="0.2">
+    <row r="707" spans="17:20" x14ac:dyDescent="0.2">
       <c r="R707" t="s">
         <v>118</v>
       </c>
@@ -16027,7 +16036,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="708" spans="18:20" x14ac:dyDescent="0.2">
+    <row r="708" spans="17:20" x14ac:dyDescent="0.2">
       <c r="R708" t="s">
         <v>119</v>
       </c>
@@ -16035,7 +16044,7 @@
         <v>1676</v>
       </c>
     </row>
-    <row r="709" spans="18:20" x14ac:dyDescent="0.2">
+    <row r="709" spans="17:20" x14ac:dyDescent="0.2">
       <c r="R709" t="s">
         <v>120</v>
       </c>
@@ -16043,7 +16052,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="710" spans="18:20" x14ac:dyDescent="0.2">
+    <row r="710" spans="17:20" x14ac:dyDescent="0.2">
       <c r="R710" t="s">
         <v>154</v>
       </c>
@@ -16051,7 +16060,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="711" spans="18:20" x14ac:dyDescent="0.2">
+    <row r="711" spans="17:20" x14ac:dyDescent="0.2">
       <c r="R711" t="s">
         <v>162</v>
       </c>
@@ -16059,7 +16068,7 @@
         <v>1679</v>
       </c>
     </row>
-    <row r="712" spans="18:20" x14ac:dyDescent="0.2">
+    <row r="712" spans="17:20" x14ac:dyDescent="0.2">
       <c r="R712" t="s">
         <v>164</v>
       </c>
@@ -16067,7 +16076,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="713" spans="18:20" x14ac:dyDescent="0.2">
+    <row r="713" spans="17:20" x14ac:dyDescent="0.2">
       <c r="R713" t="s">
         <v>163</v>
       </c>
@@ -16075,7 +16084,7 @@
         <v>1681</v>
       </c>
     </row>
-    <row r="714" spans="18:20" x14ac:dyDescent="0.2">
+    <row r="714" spans="17:20" x14ac:dyDescent="0.2">
       <c r="R714" t="s">
         <v>155</v>
       </c>
@@ -16083,7 +16092,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="715" spans="18:20" x14ac:dyDescent="0.2">
+    <row r="715" spans="17:20" x14ac:dyDescent="0.2">
       <c r="R715" t="s">
         <v>159</v>
       </c>
@@ -16091,7 +16100,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="716" spans="18:20" x14ac:dyDescent="0.2">
+    <row r="716" spans="17:20" x14ac:dyDescent="0.2">
       <c r="R716" t="s">
         <v>160</v>
       </c>
@@ -16099,7 +16108,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="717" spans="18:20" x14ac:dyDescent="0.2">
+    <row r="717" spans="17:20" x14ac:dyDescent="0.2">
       <c r="R717" t="s">
         <v>161</v>
       </c>
@@ -16107,7 +16116,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="718" spans="18:20" x14ac:dyDescent="0.2">
+    <row r="718" spans="17:20" x14ac:dyDescent="0.2">
       <c r="R718" t="s">
         <v>122</v>
       </c>
@@ -16115,7 +16124,7 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="719" spans="18:20" x14ac:dyDescent="0.2">
+    <row r="719" spans="17:20" x14ac:dyDescent="0.2">
       <c r="R719" t="s">
         <v>123</v>
       </c>
@@ -16123,7 +16132,7 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="720" spans="18:20" x14ac:dyDescent="0.2">
+    <row r="720" spans="17:20" x14ac:dyDescent="0.2">
       <c r="R720" t="s">
         <v>147</v>
       </c>
